--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.82219666666667</v>
+        <v>10.38120433333333</v>
       </c>
       <c r="H2">
-        <v>95.46659</v>
+        <v>31.143613</v>
       </c>
       <c r="I2">
-        <v>0.5609422836697905</v>
+        <v>0.2980959031155602</v>
       </c>
       <c r="J2">
-        <v>0.5609422836697905</v>
+        <v>0.2980959031155602</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.119044666666667</v>
+        <v>0.4797913333333333</v>
       </c>
       <c r="N2">
-        <v>3.357134</v>
+        <v>1.439374</v>
       </c>
       <c r="O2">
-        <v>0.0524343441460235</v>
+        <v>0.0238859545710277</v>
       </c>
       <c r="P2">
-        <v>0.05243434414602349</v>
+        <v>0.0238859545710277</v>
       </c>
       <c r="Q2">
-        <v>35.61045946145111</v>
+        <v>4.980811868695778</v>
       </c>
       <c r="R2">
-        <v>320.49413515306</v>
+        <v>44.827306818262</v>
       </c>
       <c r="S2">
-        <v>0.02941264074799813</v>
+        <v>0.007120305199627745</v>
       </c>
       <c r="T2">
-        <v>0.02941264074799813</v>
+        <v>0.007120305199627745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.82219666666667</v>
+        <v>10.38120433333333</v>
       </c>
       <c r="H3">
-        <v>95.46659</v>
+        <v>31.143613</v>
       </c>
       <c r="I3">
-        <v>0.5609422836697905</v>
+        <v>0.2980959031155602</v>
       </c>
       <c r="J3">
-        <v>0.5609422836697905</v>
+        <v>0.2980959031155602</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>47.814893</v>
       </c>
       <c r="O3">
-        <v>0.7468103909070326</v>
+        <v>0.7934729695107392</v>
       </c>
       <c r="P3">
-        <v>0.7468103909070324</v>
+        <v>0.7934729695107391</v>
       </c>
       <c r="Q3">
-        <v>507.1916428805411</v>
+        <v>165.4587248031566</v>
       </c>
       <c r="R3">
-        <v>4564.72478592487</v>
+        <v>1489.128523228409</v>
       </c>
       <c r="S3">
-        <v>0.4189175261437198</v>
+        <v>0.2365310414440892</v>
       </c>
       <c r="T3">
-        <v>0.4189175261437197</v>
+        <v>0.2365310414440891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.82219666666667</v>
+        <v>10.38120433333333</v>
       </c>
       <c r="H4">
-        <v>95.46659</v>
+        <v>31.143613</v>
       </c>
       <c r="I4">
-        <v>0.5609422836697905</v>
+        <v>0.2980959031155602</v>
       </c>
       <c r="J4">
-        <v>0.5609422836697905</v>
+        <v>0.2980959031155602</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.284484</v>
+        <v>3.668666666666667</v>
       </c>
       <c r="N4">
-        <v>12.853452</v>
+        <v>11.006</v>
       </c>
       <c r="O4">
-        <v>0.200755264946944</v>
+        <v>0.1826410759182331</v>
       </c>
       <c r="P4">
-        <v>0.200755264946944</v>
+        <v>0.1826410759182331</v>
       </c>
       <c r="Q4">
-        <v>136.3416924631867</v>
+        <v>38.08517829755556</v>
       </c>
       <c r="R4">
-        <v>1227.07523216868</v>
+        <v>342.766604678</v>
       </c>
       <c r="S4">
-        <v>0.1126121167780726</v>
+        <v>0.0544445564718433</v>
       </c>
       <c r="T4">
-        <v>0.1126121167780726</v>
+        <v>0.0544445564718433</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>43.571023</v>
       </c>
       <c r="I5">
-        <v>0.256014477352223</v>
+        <v>0.4170467778049336</v>
       </c>
       <c r="J5">
-        <v>0.256014477352223</v>
+        <v>0.4170467778049336</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.119044666666667</v>
+        <v>0.4797913333333333</v>
       </c>
       <c r="N5">
-        <v>3.357134</v>
+        <v>1.439374</v>
       </c>
       <c r="O5">
-        <v>0.0524343441460235</v>
+        <v>0.0238859545710277</v>
       </c>
       <c r="P5">
-        <v>0.05243434414602349</v>
+        <v>0.0238859545710277</v>
       </c>
       <c r="Q5">
-        <v>16.25264030312022</v>
+        <v>6.96833307328911</v>
       </c>
       <c r="R5">
-        <v>146.273762728082</v>
+        <v>62.71499765960199</v>
       </c>
       <c r="S5">
-        <v>0.0134239512118508</v>
+        <v>0.009961560388642128</v>
       </c>
       <c r="T5">
-        <v>0.0134239512118508</v>
+        <v>0.009961560388642128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>43.571023</v>
       </c>
       <c r="I6">
-        <v>0.256014477352223</v>
+        <v>0.4170467778049336</v>
       </c>
       <c r="J6">
-        <v>0.256014477352223</v>
+        <v>0.4170467778049336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>47.814893</v>
       </c>
       <c r="O6">
-        <v>0.7468103909070326</v>
+        <v>0.7934729695107392</v>
       </c>
       <c r="P6">
-        <v>0.7468103909070324</v>
+        <v>0.7934729695107391</v>
       </c>
       <c r="Q6">
         <v>231.4826447383932</v>
@@ -818,10 +818,10 @@
         <v>2083.343802645539</v>
       </c>
       <c r="S6">
-        <v>0.1911942719092734</v>
+        <v>0.3309153452097661</v>
       </c>
       <c r="T6">
-        <v>0.1911942719092733</v>
+        <v>0.3309153452097661</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>43.571023</v>
       </c>
       <c r="I7">
-        <v>0.256014477352223</v>
+        <v>0.4170467778049336</v>
       </c>
       <c r="J7">
-        <v>0.256014477352223</v>
+        <v>0.4170467778049336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.284484</v>
+        <v>3.668666666666667</v>
       </c>
       <c r="N7">
-        <v>12.853452</v>
+        <v>11.006</v>
       </c>
       <c r="O7">
-        <v>0.200755264946944</v>
+        <v>0.1826410759182331</v>
       </c>
       <c r="P7">
-        <v>0.200755264946944</v>
+        <v>0.1826410759182331</v>
       </c>
       <c r="Q7">
-        <v>62.22645030237733</v>
+        <v>53.28251990422222</v>
       </c>
       <c r="R7">
-        <v>560.038052721396</v>
+        <v>479.542679138</v>
       </c>
       <c r="S7">
-        <v>0.05139625423109894</v>
+        <v>0.07616987220652538</v>
       </c>
       <c r="T7">
-        <v>0.05139625423109893</v>
+        <v>0.07616987220652538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.38402366666667</v>
+        <v>9.920170000000001</v>
       </c>
       <c r="H8">
-        <v>31.152071</v>
+        <v>29.76051</v>
       </c>
       <c r="I8">
-        <v>0.1830432389779865</v>
+        <v>0.2848573190795062</v>
       </c>
       <c r="J8">
-        <v>0.1830432389779865</v>
+        <v>0.2848573190795062</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.119044666666667</v>
+        <v>0.4797913333333333</v>
       </c>
       <c r="N8">
-        <v>3.357134</v>
+        <v>1.439374</v>
       </c>
       <c r="O8">
-        <v>0.0524343441460235</v>
+        <v>0.0238859545710277</v>
       </c>
       <c r="P8">
-        <v>0.05243434414602349</v>
+        <v>0.0238859545710277</v>
       </c>
       <c r="Q8">
-        <v>11.62018630272378</v>
+        <v>4.759611591193333</v>
       </c>
       <c r="R8">
-        <v>104.581676724514</v>
+        <v>42.83650432074</v>
       </c>
       <c r="S8">
-        <v>0.009597752186174565</v>
+        <v>0.006804088982757828</v>
       </c>
       <c r="T8">
-        <v>0.009597752186174563</v>
+        <v>0.006804088982757828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.38402366666667</v>
+        <v>9.920170000000001</v>
       </c>
       <c r="H9">
-        <v>31.152071</v>
+        <v>29.76051</v>
       </c>
       <c r="I9">
-        <v>0.1830432389779865</v>
+        <v>0.2848573190795062</v>
       </c>
       <c r="J9">
-        <v>0.1830432389779865</v>
+        <v>0.2848573190795062</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>47.814893</v>
       </c>
       <c r="O9">
-        <v>0.7468103909070326</v>
+        <v>0.7934729695107392</v>
       </c>
       <c r="P9">
-        <v>0.7468103909070324</v>
+        <v>0.7934729695107391</v>
       </c>
       <c r="Q9">
-        <v>165.5036601770448</v>
+        <v>158.1106223639367</v>
       </c>
       <c r="R9">
-        <v>1489.532941593403</v>
+        <v>1422.99560127543</v>
       </c>
       <c r="S9">
-        <v>0.1366985928540395</v>
+        <v>0.226026582856884</v>
       </c>
       <c r="T9">
-        <v>0.1366985928540394</v>
+        <v>0.2260265828568839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.38402366666667</v>
+        <v>9.920170000000001</v>
       </c>
       <c r="H10">
-        <v>31.152071</v>
+        <v>29.76051</v>
       </c>
       <c r="I10">
-        <v>0.1830432389779865</v>
+        <v>0.2848573190795062</v>
       </c>
       <c r="J10">
-        <v>0.1830432389779865</v>
+        <v>0.2848573190795062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.284484</v>
+        <v>3.668666666666667</v>
       </c>
       <c r="N10">
-        <v>12.853452</v>
+        <v>11.006</v>
       </c>
       <c r="O10">
-        <v>0.200755264946944</v>
+        <v>0.1826410759182331</v>
       </c>
       <c r="P10">
-        <v>0.200755264946944</v>
+        <v>0.1826410759182331</v>
       </c>
       <c r="Q10">
-        <v>44.49018325545466</v>
+        <v>36.39379700666667</v>
       </c>
       <c r="R10">
-        <v>400.411649299092</v>
+        <v>327.54417306</v>
       </c>
       <c r="S10">
-        <v>0.03674689393777247</v>
+        <v>0.05202664723986446</v>
       </c>
       <c r="T10">
-        <v>0.03674689393777246</v>
+        <v>0.05202664723986446</v>
       </c>
     </row>
   </sheetData>
